--- a/admin/SalesFiguresTemplate.xlsx
+++ b/admin/SalesFiguresTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gordf\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Paymaker\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B9904AC-6D44-4FAA-B984-10F5DC3AF660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CDFB34-DDB0-4349-A145-B94C2CEEF367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18480" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Agent</t>
   </si>
@@ -36,31 +36,28 @@
     <t>Salary/Commissions Paid (Net)</t>
   </si>
   <si>
-    <t>EOFY Bonus Comm</t>
-  </si>
-  <si>
-    <t>Directors Allowance</t>
-  </si>
-  <si>
-    <t>Directors Car Allowance</t>
-  </si>
-  <si>
-    <t>Team Mentoring Bonus</t>
-  </si>
-  <si>
     <t>RBB</t>
   </si>
   <si>
+    <t>Travel Allowance Budget</t>
+  </si>
+  <si>
+    <t>Travel Allowance Paid</t>
+  </si>
+  <si>
+    <t>Superannuation</t>
+  </si>
+  <si>
+    <t>Directors Allowance Paid</t>
+  </si>
+  <si>
+    <t>Directors Car Allowance Paid</t>
+  </si>
+  <si>
     <t>Directors Allowance Budget</t>
   </si>
   <si>
     <t>Directors Car Allowance Budget</t>
-  </si>
-  <si>
-    <t>Travel Allowance Budget</t>
-  </si>
-  <si>
-    <t>Travel Allowance Paid</t>
   </si>
 </sst>
 </file>
@@ -390,24 +387,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="22.125" customWidth="1"/>
-    <col min="9" max="9" width="26.375" customWidth="1"/>
+    <col min="2" max="2" width="27.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.08203125" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,33 +412,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -450,15 +444,12 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>102</v>
-      </c>
-      <c r="E2">
         <v>103</v>
       </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
       <c r="I2">
-        <v>1000</v>
-      </c>
-      <c r="J2">
         <v>1000</v>
       </c>
     </row>
